--- a/data/trans_orig/P22S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A27C93C-4157-4085-B6F1-B52F8C97A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DB9AB3-9439-436F-A4D4-84D871577C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A68A6A2F-334B-469A-A7FD-DCA4B8BB56E0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38C5A356-C447-40C0-94C6-0A081D7FB210}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="102">
   <si>
     <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -161,6 +161,9 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
     <t>99,89%</t>
   </si>
   <si>
+    <t>99,41%</t>
+  </si>
+  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -191,24 +197,30 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>99,31%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,12%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
+    <t>99,51%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
@@ -221,13 +233,13 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -236,13 +248,13 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>99,04%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -251,37 +263,37 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,38%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -311,10 +323,19 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,05%</t>
+  </si>
+  <si>
     <t>99,93%</t>
   </si>
   <si>
+    <t>99,77%</t>
+  </si>
+  <si>
     <t>99,98%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,97%</t>
@@ -732,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80943C4D-39C6-4CEA-A94C-DC9C3A0CCBD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B5553-DF6D-4DF9-A4B0-6F09E213A176}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1750,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1783,7 +1804,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>21</v>
@@ -1795,10 +1816,10 @@
         <v>427695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -1810,10 +1831,10 @@
         <v>749935</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -1872,7 +1893,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1890,7 +1911,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1905,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1920,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1956,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1971,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2001,13 +2022,13 @@
         <v>407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2016,13 +2037,13 @@
         <v>407</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>21</v>
@@ -2052,10 +2073,10 @@
         <v>231496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>19</v>
@@ -2067,10 +2088,10 @@
         <v>428244</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
@@ -2129,7 +2150,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2147,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2162,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2177,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2207,13 +2228,13 @@
         <v>872</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2222,13 +2243,13 @@
         <v>872</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2264,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2279,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,7 +2318,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>21</v>
@@ -2309,10 +2330,10 @@
         <v>274750</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>19</v>
@@ -2324,10 +2345,10 @@
         <v>551973</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>19</v>
@@ -2386,7 +2407,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2398,13 +2419,13 @@
         <v>1186</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2428,13 +2449,13 @@
         <v>1186</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2470,13 @@
         <v>1099</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2464,13 +2485,13 @@
         <v>693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -2479,13 +2500,13 @@
         <v>1792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2536,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2575,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>19</v>
@@ -2566,10 +2587,10 @@
         <v>803510</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -2584,10 +2605,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2664,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -2661,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -2676,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -2712,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -2727,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -2763,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -2778,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -2811,7 +2832,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>21</v>
@@ -2826,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>21</v>
@@ -2841,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>21</v>
@@ -2912,13 +2933,13 @@
         <v>1186</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -2927,13 +2948,13 @@
         <v>861</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -2942,13 +2963,13 @@
         <v>2047</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2984,13 @@
         <v>1099</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -2978,13 +2999,13 @@
         <v>1565</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -2993,13 +3014,13 @@
         <v>2664</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3029,13 +3050,13 @@
         <v>407</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3044,13 +3065,13 @@
         <v>407</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,10 +3086,10 @@
         <v>3382943</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>19</v>
@@ -3080,28 +3101,28 @@
         <v>3805139</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M47" s="7">
         <v>8734</v>
       </c>
       <c r="N47" s="7">
-        <v>7188082</v>
+        <v>7188081</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,7 +3164,7 @@
         <v>8740</v>
       </c>
       <c r="N48" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>21</v>
@@ -3157,7 +3178,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DB9AB3-9439-436F-A4D4-84D871577C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC8BAC8-2570-4E3A-ABD2-420434970E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38C5A356-C447-40C0-94C6-0A081D7FB210}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A22C81EE-1E7F-4D3C-BDB1-26BB5D16A918}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B5553-DF6D-4DF9-A4B0-6F09E213A176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66C10A-11AA-4946-A188-BAE8770033FE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
